--- a/Results/ADF Test macro.xlsx
+++ b/Results/ADF Test macro.xlsx
@@ -25,40 +25,40 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>CHCPIY_ECI</t>
-  </si>
-  <si>
-    <t>CHJOB_ECI</t>
-  </si>
-  <si>
-    <t>CHPMI_ECI</t>
-  </si>
-  <si>
-    <t>CNCPI_ECI</t>
-  </si>
-  <si>
-    <t>CNPMIB_ECI</t>
-  </si>
-  <si>
-    <t>EUHICY_ECI</t>
-  </si>
-  <si>
-    <t>EUUNR_ECI</t>
-  </si>
-  <si>
-    <t>RUCPIY_ECI</t>
-  </si>
-  <si>
-    <t>RUUNR_ECI</t>
-  </si>
-  <si>
-    <t>USCPI_ECI</t>
-  </si>
-  <si>
-    <t>USPMI_ECI</t>
-  </si>
-  <si>
-    <t>USUNR_ECI</t>
+    <t>CHCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>CHJOB_DIFF</t>
+  </si>
+  <si>
+    <t>CHPMI_LOG</t>
+  </si>
+  <si>
+    <t>CNCPI_DIFF</t>
+  </si>
+  <si>
+    <t>CNPMIB_LOG</t>
+  </si>
+  <si>
+    <t>EUHICY_DIFF</t>
+  </si>
+  <si>
+    <t>EUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>RUCPIY_DIFF</t>
+  </si>
+  <si>
+    <t>RUUNR_DIFF</t>
+  </si>
+  <si>
+    <t>USCPI_DIFF</t>
+  </si>
+  <si>
+    <t>USPMI_LOG</t>
+  </si>
+  <si>
+    <t>USUNR_DIFF</t>
   </si>
 </sst>
 </file>
@@ -438,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-2.328490501741842</v>
+        <v>-3.086077654793736</v>
       </c>
       <c r="C2">
-        <v>0.1629437693568918</v>
+        <v>0.02760080804887946</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -449,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-2.088274045594986</v>
+        <v>-6.062728423123849</v>
       </c>
       <c r="C3">
-        <v>0.249255732735558</v>
+        <v>1.201789943114062E-07</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -460,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-3.858571237713301</v>
+        <v>-6.672037045463048</v>
       </c>
       <c r="C4">
-        <v>0.002361802810444937</v>
+        <v>4.562111039577684E-09</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -471,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-2.282377401797517</v>
+        <v>-6.04463505769894</v>
       </c>
       <c r="C5">
-        <v>0.1777146139430321</v>
+        <v>1.320818826695836E-07</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-6.083170564262714</v>
+        <v>-7.779337228265672</v>
       </c>
       <c r="C6">
-        <v>1.079944255836668E-07</v>
+        <v>8.499838024476851E-12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -493,10 +493,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.606644937803028</v>
+        <v>-1.742510505498227</v>
       </c>
       <c r="C7">
-        <v>0.4802547310547681</v>
+        <v>0.4093534971004733</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -504,10 +504,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.1112394552645419</v>
+        <v>-4.872404042240862</v>
       </c>
       <c r="C8">
-        <v>0.9483074692831749</v>
+        <v>3.945438575686891E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -515,10 +515,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-2.031981246910506</v>
+        <v>-2.919451924831463</v>
       </c>
       <c r="C9">
-        <v>0.2727288267323392</v>
+        <v>0.04313231267590368</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-3.465133585098328</v>
+        <v>-9.024988548742824</v>
       </c>
       <c r="C10">
-        <v>0.008929010471849774</v>
+        <v>5.641724550080736E-15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -548,10 +548,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-4.352667326887492</v>
+        <v>-7.75488834522941</v>
       </c>
       <c r="C12">
-        <v>0.0003596296177845496</v>
+        <v>9.79727821958186E-12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -559,10 +559,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-3.01609690069041</v>
+        <v>-10.63426553524657</v>
       </c>
       <c r="C13">
-        <v>0.03341825253111987</v>
+        <v>5.120192437299099E-19</v>
       </c>
     </row>
   </sheetData>
